--- a/biology/Mycologie/Toxine_T2/Toxine_T2.xlsx
+++ b/biology/Mycologie/Toxine_T2/Toxine_T2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La toxine T2 est une mycotoxine de la famille des trichothécènes. Elle est toxique pour l'homme et les animaux. Elle est produite notamment par Fusarium sporotrichioides, Fusarium langsethiae et Fusarium poae.
@@ -512,9 +524,11 @@
           <t>DJT</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le comité scientifique pour les aliments humains (CSAH) a établi une dose journalière tolérable (DJT) de 0,06 μg·kgpc-1. Cette dose s'applique aux toxines T-2 et HT-2 combinées[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le comité scientifique pour les aliments humains (CSAH) a établi une dose journalière tolérable (DJT) de 0,06 μg·kgpc-1. Cette dose s'applique aux toxines T-2 et HT-2 combinées.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1981, cette mycotoxine donna lieu à un incident politique : le secrétaire d'État des États-Unis Alexander Haig accusa l'URSS de fournir cette substance au Viêt-nam et au Laos pour utilisation comme arme biologique dans la guerre contre-insurrectionnelle, où elle fut surnommée pluie jaune [4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1981, cette mycotoxine donna lieu à un incident politique : le secrétaire d'État des États-Unis Alexander Haig accusa l'URSS de fournir cette substance au Viêt-nam et au Laos pour utilisation comme arme biologique dans la guerre contre-insurrectionnelle, où elle fut surnommée pluie jaune .
 </t>
         </is>
       </c>
